--- a/protocol/MF5pt2.xlsx
+++ b/protocol/MF5pt2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F4AF3-E0E5-4960-BCAE-D3CB1AE2B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24357D-E955-4A22-A90B-75D11A89C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="32">
   <si>
     <t>Combined</t>
   </si>
@@ -109,6 +120,18 @@
   </si>
   <si>
     <t>MF 5.2 (PAC) TEST PROCEDURE</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Old Job</t>
   </si>
 </sst>
 </file>
@@ -221,14 +244,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,9 +271,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +311,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,40 +567,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58031019-AFD2-4461-8B24-C325E2174DEC}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
     <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -602,8 +627,14 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -628,8 +659,14 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -654,8 +691,14 @@
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -680,8 +723,14 @@
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -706,8 +755,14 @@
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -732,8 +787,14 @@
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -758,8 +819,14 @@
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -784,8 +851,14 @@
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -810,8 +883,14 @@
       <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -836,8 +915,14 @@
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -862,8 +947,14 @@
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -888,8 +979,14 @@
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -914,8 +1011,14 @@
       <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -940,8 +1043,14 @@
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -966,8 +1075,14 @@
       <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -992,8 +1107,14 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1018,8 +1139,14 @@
       <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1044,8 +1171,14 @@
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1070,8 +1203,14 @@
       <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1096,8 +1235,14 @@
       <c r="H21" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1122,8 +1267,14 @@
       <c r="H22" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1148,8 +1299,14 @@
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1174,8 +1331,14 @@
       <c r="H24" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1200,8 +1363,14 @@
       <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1226,8 +1395,14 @@
       <c r="H26" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1252,8 +1427,14 @@
       <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1278,8 +1459,14 @@
       <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1304,8 +1491,14 @@
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1330,8 +1523,14 @@
       <c r="H30" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1356,8 +1555,14 @@
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1382,8 +1587,14 @@
       <c r="H32" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1408,8 +1619,14 @@
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1434,8 +1651,14 @@
       <c r="H34" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1460,8 +1683,14 @@
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1486,8 +1715,14 @@
       <c r="H36" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1512,8 +1747,14 @@
       <c r="H37" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1538,8 +1779,14 @@
       <c r="H38" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1564,8 +1811,14 @@
       <c r="H39" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1590,8 +1843,14 @@
       <c r="H40" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1616,8 +1875,14 @@
       <c r="H41" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1642,8 +1907,14 @@
       <c r="H42" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1668,8 +1939,14 @@
       <c r="H43" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1694,8 +1971,14 @@
       <c r="H44" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1720,8 +2003,14 @@
       <c r="H45" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1746,8 +2035,14 @@
       <c r="H46" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1772,8 +2067,14 @@
       <c r="H47" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1798,8 +2099,14 @@
       <c r="H48" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1824,8 +2131,14 @@
       <c r="H49" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1850,8 +2163,14 @@
       <c r="H50" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1876,8 +2195,14 @@
       <c r="H51" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1902,8 +2227,14 @@
       <c r="H52" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1928,8 +2259,14 @@
       <c r="H53" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1954,8 +2291,14 @@
       <c r="H54" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1980,8 +2323,14 @@
       <c r="H55" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2006,8 +2355,14 @@
       <c r="H56" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2032,8 +2387,14 @@
       <c r="H57" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2058,8 +2419,14 @@
       <c r="H58" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2084,8 +2451,14 @@
       <c r="H59" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2110,8 +2483,14 @@
       <c r="H60" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2136,8 +2515,14 @@
       <c r="H61" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2162,8 +2547,14 @@
       <c r="H62" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2188,8 +2579,14 @@
       <c r="H63" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2214,8 +2611,14 @@
       <c r="H64" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2240,8 +2643,14 @@
       <c r="H65" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2266,8 +2675,14 @@
       <c r="H66" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2292,8 +2707,14 @@
       <c r="H67" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2318,8 +2739,14 @@
       <c r="H68" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2344,8 +2771,14 @@
       <c r="H69" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2370,8 +2803,14 @@
       <c r="H70" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2396,8 +2835,14 @@
       <c r="H71" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2422,8 +2867,14 @@
       <c r="H72" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2448,8 +2899,14 @@
       <c r="H73" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2474,8 +2931,14 @@
       <c r="H74" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2500,8 +2963,14 @@
       <c r="H75" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2526,8 +2995,14 @@
       <c r="H76" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2552,8 +3027,14 @@
       <c r="H77" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2578,8 +3059,14 @@
       <c r="H78" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2604,8 +3091,14 @@
       <c r="H79" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2630,8 +3123,14 @@
       <c r="H80" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2656,8 +3155,14 @@
       <c r="H81" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2682,8 +3187,14 @@
       <c r="H82" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2708,8 +3219,14 @@
       <c r="H83" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2734,8 +3251,14 @@
       <c r="H84" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2760,8 +3283,14 @@
       <c r="H85" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2786,8 +3315,14 @@
       <c r="H86" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2812,8 +3347,14 @@
       <c r="H87" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2838,8 +3379,14 @@
       <c r="H88" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2864,8 +3411,14 @@
       <c r="H89" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2890,8 +3443,14 @@
       <c r="H90" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2916,8 +3475,14 @@
       <c r="H91" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2942,8 +3507,14 @@
       <c r="H92" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2968,8 +3539,14 @@
       <c r="H93" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2994,8 +3571,14 @@
       <c r="H94" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3020,8 +3603,14 @@
       <c r="H95" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3046,8 +3635,14 @@
       <c r="H96" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3072,8 +3667,14 @@
       <c r="H97" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3098,8 +3699,14 @@
       <c r="H98" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3124,8 +3731,14 @@
       <c r="H99" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3150,8 +3763,14 @@
       <c r="H100" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3176,8 +3795,14 @@
       <c r="H101" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3202,8 +3827,14 @@
       <c r="H102" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3228,8 +3859,14 @@
       <c r="H103" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3254,8 +3891,14 @@
       <c r="H104" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3280,8 +3923,14 @@
       <c r="H105" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3306,8 +3955,14 @@
       <c r="H106" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3332,8 +3987,14 @@
       <c r="H107" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3358,8 +4019,14 @@
       <c r="H108" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3384,8 +4051,14 @@
       <c r="H109" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3410,8 +4083,14 @@
       <c r="H110" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3424,10 +4103,10 @@
       <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="8">
-        <v>0</v>
-      </c>
-      <c r="F111" s="8">
+      <c r="E111" s="7">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
         <v>0</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -3436,8 +4115,14 @@
       <c r="H111" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3450,10 +4135,10 @@
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="8">
+      <c r="E112" s="7">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
         <v>0</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -3462,8 +4147,14 @@
       <c r="H112" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3476,10 +4167,10 @@
       <c r="D113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="8">
-        <v>0</v>
-      </c>
-      <c r="F113" s="8">
+      <c r="E113" s="7">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
         <v>0</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -3488,8 +4179,14 @@
       <c r="H113" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3502,10 +4199,10 @@
       <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="8">
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
+      <c r="E114" s="7">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7">
         <v>0</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -3514,8 +4211,14 @@
       <c r="H114" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3528,10 +4231,10 @@
       <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7">
         <v>0</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -3540,8 +4243,14 @@
       <c r="H115" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3554,10 +4263,10 @@
       <c r="D116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
         <v>0</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -3566,8 +4275,14 @@
       <c r="H116" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3580,10 +4295,10 @@
       <c r="D117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
         <v>0</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -3592,8 +4307,14 @@
       <c r="H117" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3606,10 +4327,10 @@
       <c r="D118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
         <v>0</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -3618,8 +4339,14 @@
       <c r="H118" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3632,10 +4359,10 @@
       <c r="D119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="8">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8">
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
         <v>0</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -3644,8 +4371,14 @@
       <c r="H119" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3658,10 +4391,10 @@
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8">
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
         <v>0</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -3670,8 +4403,14 @@
       <c r="H120" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3684,10 +4423,10 @@
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="8">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
+      <c r="F121" s="7">
         <v>0</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -3696,8 +4435,14 @@
       <c r="H121" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3710,10 +4455,10 @@
       <c r="D122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="8">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
+      <c r="E122" s="7">
+        <v>0</v>
+      </c>
+      <c r="F122" s="7">
         <v>0</v>
       </c>
       <c r="G122" s="4" t="s">
@@ -3722,8 +4467,14 @@
       <c r="H122" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3736,10 +4487,10 @@
       <c r="D123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="8">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
+      <c r="E123" s="7">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7">
         <v>0</v>
       </c>
       <c r="G123" s="4" t="s">
@@ -3748,8 +4499,14 @@
       <c r="H123" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3762,10 +4519,10 @@
       <c r="D124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="8">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8">
+      <c r="E124" s="7">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7">
         <v>0</v>
       </c>
       <c r="G124" s="4" t="s">
@@ -3774,8 +4531,14 @@
       <c r="H124" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3788,10 +4551,10 @@
       <c r="D125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="8">
-        <v>0</v>
-      </c>
-      <c r="F125" s="8">
+      <c r="E125" s="7">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7">
         <v>0</v>
       </c>
       <c r="G125" s="4" t="s">
@@ -3800,8 +4563,14 @@
       <c r="H125" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3814,20 +4583,26 @@
       <c r="D126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="8">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
+      <c r="E126" s="7">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7">
         <v>0</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H126" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="7">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3840,20 +4615,26 @@
       <c r="D127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="8">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8">
+      <c r="E127" s="7">
+        <v>0</v>
+      </c>
+      <c r="F127" s="7">
         <v>0</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H127" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="7">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3866,20 +4647,26 @@
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="8">
-        <v>0</v>
-      </c>
-      <c r="F128" s="8">
+      <c r="E128" s="7">
+        <v>0</v>
+      </c>
+      <c r="F128" s="7">
         <v>0</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H128" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H128" s="7">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3892,20 +4679,26 @@
       <c r="D129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="8">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8">
+      <c r="E129" s="7">
+        <v>0</v>
+      </c>
+      <c r="F129" s="7">
         <v>0</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H129" s="7">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3918,20 +4711,26 @@
       <c r="D130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="8">
-        <v>0</v>
-      </c>
-      <c r="F130" s="8">
+      <c r="E130" s="7">
+        <v>0</v>
+      </c>
+      <c r="F130" s="7">
         <v>0</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H130" s="7">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3944,20 +4743,26 @@
       <c r="D131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="8">
-        <v>0</v>
-      </c>
-      <c r="F131" s="8">
+      <c r="E131" s="7">
+        <v>0</v>
+      </c>
+      <c r="F131" s="7">
         <v>0</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H131" s="7">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3970,7 +4775,7 @@
       <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="7">
         <v>0</v>
       </c>
       <c r="F132" s="1">
@@ -3979,11 +4784,17 @@
       <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="7">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3996,7 +4807,7 @@
       <c r="D133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="7">
         <v>0</v>
       </c>
       <c r="F133" s="1">
@@ -4005,11 +4816,17 @@
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="7">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4022,7 +4839,7 @@
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="1">
         <v>0</v>
       </c>
       <c r="F134" s="1">
@@ -4031,13 +4848,19 @@
       <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="8">
-        <v>0</v>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
